--- a/templates/report/recursos.xlsx
+++ b/templates/report/recursos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E22C1B-D0B7-4076-8519-661B01E64A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFBDA40-C496-4F86-BC9B-3B5F9B0D2815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recursos" sheetId="37" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Tarifas" sheetId="41" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Precios!$A$2:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Precios!$A$2:$M$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recursos!$A$2:$X$3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Code</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>SHORT</t>
+  </si>
+  <si>
+    <t>Edificio</t>
+  </si>
+  <si>
+    <t>Building.Code</t>
+  </si>
+  <si>
+    <t>Building.Name</t>
   </si>
 </sst>
 </file>
@@ -808,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1022,111 +1031,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F063E8C-9C12-4A86-8416-6A77642A363A}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="17.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="24.85546875" style="2"/>
+    <col min="5" max="5" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="17.7109375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
@@ -1134,10 +1155,12 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:K3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:M3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1390,15 +1413,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
@@ -1407,6 +1421,15 @@
     <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1429,14 +1452,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1445,4 +1460,12 @@
     <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/report/recursos.xlsx
+++ b/templates/report/recursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFBDA40-C496-4F86-BC9B-3B5F9B0D2815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846E4412-6893-4A3E-A877-E93C2052F2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recursos" sheetId="37" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Precios!$A$2:$M$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recursos!$A$2:$X$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>Code</t>
   </si>
@@ -74,9 +74,6 @@
 por</t>
   </si>
   <si>
-    <t>Provider.Name</t>
-  </si>
-  <si>
     <t>Tipología
 de plazas</t>
   </si>
@@ -126,9 +123,6 @@
     <t>Gate_mac</t>
   </si>
   <si>
-    <t>Gate_url</t>
-  </si>
-  <si>
     <t>Gate_phone</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>Puerta MAC</t>
   </si>
   <si>
-    <t>Puerta URL</t>
-  </si>
-  <si>
     <t>Puerta Teléfono</t>
   </si>
   <si>
@@ -268,6 +259,15 @@
   </si>
   <si>
     <t>Building.Name</t>
+  </si>
+  <si>
+    <t>Owner.Name</t>
+  </si>
+  <si>
+    <t>Empresa de servicios</t>
+  </si>
+  <si>
+    <t>Service.Name</t>
   </si>
 </sst>
 </file>
@@ -817,30 +817,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="37.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="24.85546875" style="2"/>
@@ -851,158 +850,160 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>42</v>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -1020,7 +1021,7 @@
   <autoFilter ref="A2:X3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A3:X3000">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A3&lt;&gt;"",$E3="")</formula>
+      <formula>AND($A3&lt;&gt;"",$F3="")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1033,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F063E8C-9C12-4A86-8416-6A77642A363A}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1050,97 +1051,97 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1182,13 +1183,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,15 +1197,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="13"/>
@@ -1216,6 +1217,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -1412,17 +1424,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1433,6 +1434,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1451,17 +1463,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>

--- a/templates/report/recursos.xlsx
+++ b/templates/report/recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846E4412-6893-4A3E-A877-E93C2052F2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F1D96-B702-4C1D-B501-DE0427B8041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Precios!$A$2:$M$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recursos!$A$2:$X$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recursos!$A$2:$AF$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>Code</t>
   </si>
@@ -268,6 +268,39 @@
   </si>
   <si>
     <t>Service.Name</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>PVP LONG</t>
+  </si>
+  <si>
+    <t>PVP MEDIUM</t>
+  </si>
+  <si>
+    <t>PVP SHORT</t>
+  </si>
+  <si>
+    <t>No disponible</t>
+  </si>
+  <si>
+    <t>Desde</t>
+  </si>
+  <si>
+    <t>Hasta</t>
+  </si>
+  <si>
+    <t>[extras]</t>
+  </si>
+  <si>
+    <t>[unavailable]</t>
+  </si>
+  <si>
+    <t>[from]</t>
+  </si>
+  <si>
+    <t>[to]</t>
   </si>
 </sst>
 </file>
@@ -322,7 +355,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,7 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +429,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,9 +453,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -815,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,26 +868,25 @@
     <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="24.85546875" style="2"/>
+    <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="9.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.42578125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="16.85546875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="20.5703125" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -865,61 +906,85 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -939,61 +1004,75 @@
         <v>39</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -1001,25 +1080,37 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A3:X3000">
+  <autoFilter ref="A2:AF3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A3:AF3000">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($A3&lt;&gt;"",$F3="")</formula>
     </cfRule>
@@ -1149,15 +1240,15 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
     </row>
     <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1208,7 +1299,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="13"/>
+      <c r="C3" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/report/recursos.xlsx
+++ b/templates/report/recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F1D96-B702-4C1D-B501-DE0427B8041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD37B85-1227-48FC-9BAF-6159BB618088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1111,8 +1131,8 @@
   </sheetData>
   <autoFilter ref="A2:AF3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A3:AF3000">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A3&lt;&gt;"",$F3="")</formula>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>LEN($C3)=12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1319,6 +1339,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -1515,15 +1544,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
@@ -1536,6 +1556,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1552,12 +1580,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/report/recursos.xlsx
+++ b/templates/report/recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD37B85-1227-48FC-9BAF-6159BB618088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD0662-A5FF-45A3-9337-1600BB9DAD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Precios!$A$2:$M$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recursos!$A$2:$AF$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recursos!$A$2:$AG$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>Code</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>[to]</t>
+  </si>
+  <si>
+    <t>+%</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,33 +462,19 @@
     <xf numFmtId="6" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1FFFC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD1FFFC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -877,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,24 +878,25 @@
     <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="9.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="15.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="16.85546875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="20.5703125" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="24.85546875" style="2"/>
+    <col min="8" max="8" width="5.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9.5703125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="16.85546875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="20.5703125" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -928,83 +918,86 @@
       <c r="G1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -1026,69 +1019,70 @@
       <c r="G2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -1098,20 +1092,20 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="13"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="15"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="15"/>
-      <c r="U3" s="10"/>
+      <c r="U3" s="15"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
@@ -1123,15 +1117,16 @@
       <c r="AD3" s="10"/>
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="S4" s="16"/>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AF3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A3:AF3000">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <autoFilter ref="A2:AG3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A3:AG3000">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN($C3)=12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1328,17 +1323,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1347,7 +1331,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -1544,18 +1528,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1563,7 +1547,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1580,4 +1564,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/templates/report/recursos.xlsx
+++ b/templates/report/recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCD0662-A5FF-45A3-9337-1600BB9DAD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53646B89-717D-44A6-BB9F-9C11C8DE76F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -893,10 +893,11 @@
     <col min="28" max="28" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="32" width="16.85546875" style="2" customWidth="1"/>
     <col min="33" max="33" width="20.5703125" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="24.85546875" style="2"/>
+    <col min="34" max="34" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -996,8 +997,11 @@
       <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" s="1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1123,7 @@
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
     </row>
@@ -1323,12 +1327,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1529,20 +1535,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1567,12 +1574,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/report/recursos.xlsx
+++ b/templates/report/recursos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53646B89-717D-44A6-BB9F-9C11C8DE76F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E807DC-1961-46E3-8A8F-9ABE0F5C5F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Code</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Nº máximo de plazas</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Código</t>
@@ -396,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -422,6 +419,15 @@
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -461,13 +467,13 @@
     <xf numFmtId="6" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -866,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -902,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
@@ -917,10 +923,10 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>86</v>
+        <v>74</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
@@ -932,34 +938,34 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>14</v>
@@ -1003,10 +1009,10 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -1015,13 +1021,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
@@ -1041,13 +1047,13 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>11</v>
@@ -1087,26 +1093,45 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="17"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="L3" s="13">
+        <f>_xlfn.XLOOKUP($AH$1&amp;LEFT($C3,6)&amp;$E3&amp;$F3,Precios!$Q:$Q,Precios!H:H,0)*_xlfn.XLOOKUP($K3,Tarifas!$A:$A,Tarifas!C:C,0)*(1+0.01*_xlfn.NUMBERVALUE(SUBSTITUTE($H3,".",",")))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <f>_xlfn.XLOOKUP($AH$1&amp;LEFT($C3,6)&amp;$E3&amp;$F3,Precios!$Q:$Q,Precios!I:I,0)*_xlfn.XLOOKUP($K3,Tarifas!$A:$A,Tarifas!C:C,0)*(1+0.01*_xlfn.NUMBERVALUE(SUBSTITUTE($H3,".",",")))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <f>_xlfn.XLOOKUP($AH$1&amp;LEFT($C3,6)&amp;$E3&amp;$F3,Precios!$Q:$Q,Precios!J:J,0)*_xlfn.XLOOKUP($K3,Tarifas!$A:$A,Tarifas!C:C,0)*(1+0.01*_xlfn.NUMBERVALUE(SUBSTITUTE($H3,".",",")))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <f>_xlfn.XLOOKUP($AH$1&amp;LEFT($C3,6)&amp;$E3&amp;$F3,Precios!$Q:$Q,Precios!K:K,0)*_xlfn.XLOOKUP($K3,Tarifas!$A:$A,Tarifas!C:C,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <f t="shared" ref="P3" si="0">$L3+$O3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
+        <f t="shared" ref="Q3" si="1">$M3+$O3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="13">
+        <f t="shared" ref="R3" si="2">$N3+$O3</f>
+        <v>0</v>
+      </c>
       <c r="S3" s="14"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
@@ -1123,13 +1148,9 @@
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:AG3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A3:AG3000">
+  <conditionalFormatting sqref="A3:AG3">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN($C3)=12</formula>
     </cfRule>
@@ -1142,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F063E8C-9C12-4A86-8416-6A77642A363A}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1159,100 +1180,98 @@
     <col min="17" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -1268,8 +1287,11 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
+      <c r="Q3" s="18" t="str">
+        <f>A3&amp;B3&amp;D3&amp;F3</f>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A2:M3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1293,13 +1315,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,16 +1329,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="12"/>
     </row>
@@ -1327,6 +1347,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
@@ -1337,7 +1366,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -1534,16 +1563,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1554,7 +1582,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1571,12 +1599,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/report/recursos.xlsx
+++ b/templates/report/recursos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E807DC-1961-46E3-8A8F-9ABE0F5C5F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95BB0BC-9D9C-4D5C-A467-36CAA2D09333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Precios!$A$2:$M$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recursos!$A$2:$AG$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Recursos!$A$2:$AH$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>Code</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Propietario</t>
-  </si>
-  <si>
-    <t>Piso</t>
   </si>
   <si>
     <t>Tarifa</t>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t>+%</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Street</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,219 +883,224 @@
   <cols>
     <col min="1" max="2" width="37.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9.5703125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="15.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="16.85546875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="20.5703125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="24.85546875" style="2"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="9.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="16.85546875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="20.5703125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="24.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="AB1" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="Y2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -1100,42 +1108,42 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="13">
-        <f>_xlfn.XLOOKUP($AH$1&amp;LEFT($C3,6)&amp;$E3&amp;$F3,Precios!$Q:$Q,Precios!H:H,0)*_xlfn.XLOOKUP($K3,Tarifas!$A:$A,Tarifas!C:C,0)*(1+0.01*_xlfn.NUMBERVALUE(SUBSTITUTE($H3,".",",")))</f>
+      <c r="L3" s="10"/>
+      <c r="M3" s="13">
+        <f>_xlfn.XLOOKUP($AI$1&amp;LEFT($C3,6)&amp;$F3&amp;$G3,Precios!$Q:$Q,Precios!H:H,0)*_xlfn.XLOOKUP($L3,Tarifas!$A:$A,Tarifas!C:C,0)*(1+0.01*_xlfn.NUMBERVALUE(SUBSTITUTE($I3,".",",")))</f>
         <v>0</v>
       </c>
-      <c r="M3" s="13">
-        <f>_xlfn.XLOOKUP($AH$1&amp;LEFT($C3,6)&amp;$E3&amp;$F3,Precios!$Q:$Q,Precios!I:I,0)*_xlfn.XLOOKUP($K3,Tarifas!$A:$A,Tarifas!C:C,0)*(1+0.01*_xlfn.NUMBERVALUE(SUBSTITUTE($H3,".",",")))</f>
+      <c r="N3" s="13">
+        <f>_xlfn.XLOOKUP($AI$1&amp;LEFT($C3,6)&amp;$F3&amp;$G3,Precios!$Q:$Q,Precios!I:I,0)*_xlfn.XLOOKUP($L3,Tarifas!$A:$A,Tarifas!C:C,0)*(1+0.01*_xlfn.NUMBERVALUE(SUBSTITUTE($I3,".",",")))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="13">
-        <f>_xlfn.XLOOKUP($AH$1&amp;LEFT($C3,6)&amp;$E3&amp;$F3,Precios!$Q:$Q,Precios!J:J,0)*_xlfn.XLOOKUP($K3,Tarifas!$A:$A,Tarifas!C:C,0)*(1+0.01*_xlfn.NUMBERVALUE(SUBSTITUTE($H3,".",",")))</f>
+      <c r="O3" s="13">
+        <f>_xlfn.XLOOKUP($AI$1&amp;LEFT($C3,6)&amp;$F3&amp;$G3,Precios!$Q:$Q,Precios!J:J,0)*_xlfn.XLOOKUP($L3,Tarifas!$A:$A,Tarifas!C:C,0)*(1+0.01*_xlfn.NUMBERVALUE(SUBSTITUTE($I3,".",",")))</f>
         <v>0</v>
       </c>
-      <c r="O3" s="13">
-        <f>_xlfn.XLOOKUP($AH$1&amp;LEFT($C3,6)&amp;$E3&amp;$F3,Precios!$Q:$Q,Precios!K:K,0)*_xlfn.XLOOKUP($K3,Tarifas!$A:$A,Tarifas!C:C,0)</f>
+      <c r="P3" s="13">
+        <f>_xlfn.XLOOKUP($AI$1&amp;LEFT($C3,6)&amp;$F3&amp;$G3,Precios!$Q:$Q,Precios!K:K,0)*_xlfn.XLOOKUP($L3,Tarifas!$A:$A,Tarifas!C:C,0)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="13">
-        <f t="shared" ref="P3" si="0">$L3+$O3</f>
+      <c r="Q3" s="13">
+        <f t="shared" ref="Q3" si="0">$M3+$P3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="13">
-        <f t="shared" ref="Q3" si="1">$M3+$O3</f>
+      <c r="R3" s="13">
+        <f t="shared" ref="R3" si="1">$N3+$P3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="13">
-        <f t="shared" ref="R3" si="2">$N3+$O3</f>
+      <c r="S3" s="13">
+        <f t="shared" ref="S3" si="2">$O3+$P3</f>
         <v>0</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="15"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="10"/>
+      <c r="V3" s="15"/>
       <c r="W3" s="10"/>
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
@@ -1147,10 +1155,11 @@
       <c r="AE3" s="10"/>
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AG3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A3:AG3">
+  <autoFilter ref="A2:AH3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A3:AH3">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN($C3)=12</formula>
     </cfRule>
@@ -1182,92 +1191,92 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1315,13 +1324,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,26 +1356,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -1563,10 +1552,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1583,20 +1603,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/report/recursos.xlsx
+++ b/templates/report/recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95BB0BC-9D9C-4D5C-A467-36CAA2D09333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597E4A79-404E-4D5E-9B61-AA0C5699A63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1159,8 +1169,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:AH3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A3:AH3">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A3:AH9999">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>LEN($C3)=12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1553,6 +1563,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
@@ -1561,15 +1580,6 @@
     <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1592,6 +1602,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1600,12 +1618,4 @@
     <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>